--- a/SchedulingData/static4/pso/scheduling1_3.xlsx
+++ b/SchedulingData/static4/pso/scheduling1_3.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>76.09999999999999</v>
+        <v>63.56</v>
       </c>
       <c r="E2" t="n">
-        <v>26.52</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="3">
@@ -485,36 +485,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>41.76</v>
+        <v>71.12</v>
       </c>
       <c r="E3" t="n">
-        <v>27.504</v>
+        <v>24.568</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>76.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>141.64</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>23.556</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="5">
@@ -542,22 +542,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>41.76</v>
+        <v>71.12</v>
       </c>
       <c r="D6" t="n">
-        <v>99.06</v>
+        <v>145.42</v>
       </c>
       <c r="E6" t="n">
-        <v>24.864</v>
+        <v>19.248</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -565,13 +565,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>49.1</v>
+        <v>117.5</v>
       </c>
       <c r="E7" t="n">
-        <v>27.28</v>
+        <v>21.58</v>
       </c>
     </row>
     <row r="8">
@@ -580,17 +580,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>99.06</v>
+        <v>145.42</v>
       </c>
       <c r="D8" t="n">
-        <v>140.5</v>
+        <v>188.02</v>
       </c>
       <c r="E8" t="n">
-        <v>21.36</v>
+        <v>16.608</v>
       </c>
     </row>
     <row r="9">
@@ -599,22 +599,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>49.1</v>
+        <v>63.56</v>
       </c>
       <c r="D9" t="n">
-        <v>93.02</v>
+        <v>114.8</v>
       </c>
       <c r="E9" t="n">
-        <v>24.508</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>87.09999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E10" t="n">
         <v>24.96</v>
@@ -637,36 +637,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>117.5</v>
       </c>
       <c r="D11" t="n">
-        <v>43.1</v>
+        <v>183.54</v>
       </c>
       <c r="E11" t="n">
-        <v>26.88</v>
+        <v>17.576</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>140.5</v>
+        <v>78.2</v>
       </c>
       <c r="D12" t="n">
-        <v>223.56</v>
+        <v>144.3</v>
       </c>
       <c r="E12" t="n">
-        <v>17.664</v>
+        <v>22.84</v>
       </c>
     </row>
     <row r="13">
@@ -675,17 +675,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>78.2</v>
+        <v>144.3</v>
       </c>
       <c r="D13" t="n">
-        <v>150.62</v>
+        <v>190.5</v>
       </c>
       <c r="E13" t="n">
-        <v>22.708</v>
+        <v>19.36</v>
       </c>
     </row>
     <row r="14">
@@ -694,17 +694,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>223.56</v>
+        <v>188.02</v>
       </c>
       <c r="D14" t="n">
-        <v>273.26</v>
+        <v>245.94</v>
       </c>
       <c r="E14" t="n">
-        <v>14.824</v>
+        <v>12.956</v>
       </c>
     </row>
     <row r="15">
@@ -713,74 +713,74 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>43.1</v>
+        <v>183.54</v>
       </c>
       <c r="D15" t="n">
-        <v>109.14</v>
+        <v>230.74</v>
       </c>
       <c r="E15" t="n">
-        <v>22.876</v>
+        <v>13.496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>150.62</v>
+        <v>230.74</v>
       </c>
       <c r="D16" t="n">
-        <v>230.58</v>
+        <v>282.84</v>
       </c>
       <c r="E16" t="n">
-        <v>17.332</v>
+        <v>10.416</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>141.64</v>
+        <v>114.8</v>
       </c>
       <c r="D17" t="n">
-        <v>196.5</v>
+        <v>185.94</v>
       </c>
       <c r="E17" t="n">
-        <v>19.2</v>
+        <v>18.816</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>93.02</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>144.16</v>
+        <v>55.46</v>
       </c>
       <c r="E18" t="n">
-        <v>20.524</v>
+        <v>25.644</v>
       </c>
     </row>
     <row r="19">
@@ -789,55 +789,55 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>109.14</v>
+        <v>282.84</v>
       </c>
       <c r="D19" t="n">
-        <v>179.46</v>
+        <v>346.66</v>
       </c>
       <c r="E19" t="n">
-        <v>19.444</v>
+        <v>7.644</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>87.09999999999999</v>
+        <v>190.5</v>
       </c>
       <c r="D20" t="n">
-        <v>162.72</v>
+        <v>225.12</v>
       </c>
       <c r="E20" t="n">
-        <v>19.528</v>
+        <v>17.028</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>196.5</v>
+        <v>185.94</v>
       </c>
       <c r="D21" t="n">
-        <v>284.9</v>
+        <v>271.06</v>
       </c>
       <c r="E21" t="n">
-        <v>13.5</v>
+        <v>15.384</v>
       </c>
     </row>
     <row r="22">
@@ -846,74 +846,74 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>230.58</v>
+        <v>225.12</v>
       </c>
       <c r="D22" t="n">
-        <v>311.08</v>
+        <v>281.82</v>
       </c>
       <c r="E22" t="n">
-        <v>13.372</v>
+        <v>14.948</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>162.72</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>258.82</v>
+        <v>137.8</v>
       </c>
       <c r="E23" t="n">
-        <v>16.008</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>144.16</v>
+        <v>55.46</v>
       </c>
       <c r="D24" t="n">
-        <v>201.26</v>
+        <v>155.22</v>
       </c>
       <c r="E24" t="n">
-        <v>16.444</v>
+        <v>20.268</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>284.9</v>
+        <v>271.06</v>
       </c>
       <c r="D25" t="n">
-        <v>364.12</v>
+        <v>318.56</v>
       </c>
       <c r="E25" t="n">
-        <v>11.168</v>
+        <v>12.264</v>
       </c>
     </row>
     <row r="26">
@@ -922,17 +922,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>201.26</v>
+        <v>318.56</v>
       </c>
       <c r="D26" t="n">
-        <v>270.86</v>
+        <v>397.88</v>
       </c>
       <c r="E26" t="n">
-        <v>11.124</v>
+        <v>9.432</v>
       </c>
     </row>
     <row r="27">
@@ -941,36 +941,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>311.08</v>
+        <v>281.82</v>
       </c>
       <c r="D27" t="n">
-        <v>375.4</v>
+        <v>320.16</v>
       </c>
       <c r="E27" t="n">
-        <v>10.54</v>
+        <v>12.244</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>270.86</v>
+        <v>155.22</v>
       </c>
       <c r="D28" t="n">
-        <v>318.26</v>
+        <v>200.02</v>
       </c>
       <c r="E28" t="n">
-        <v>8.004</v>
+        <v>17.428</v>
       </c>
     </row>
     <row r="29">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>273.26</v>
+        <v>245.94</v>
       </c>
       <c r="D29" t="n">
-        <v>321.78</v>
+        <v>304.26</v>
       </c>
       <c r="E29" t="n">
-        <v>10.612</v>
+        <v>8.744</v>
       </c>
     </row>
     <row r="30">
@@ -998,55 +998,55 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>258.82</v>
+        <v>200.02</v>
       </c>
       <c r="D30" t="n">
-        <v>330.72</v>
+        <v>260.76</v>
       </c>
       <c r="E30" t="n">
-        <v>12.888</v>
+        <v>14.464</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>179.46</v>
+        <v>137.8</v>
       </c>
       <c r="D31" t="n">
-        <v>222.8</v>
+        <v>185.3</v>
       </c>
       <c r="E31" t="n">
-        <v>16.74</v>
+        <v>17.88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>222.8</v>
+        <v>185.3</v>
       </c>
       <c r="D32" t="n">
-        <v>289.6</v>
+        <v>237.7</v>
       </c>
       <c r="E32" t="n">
-        <v>13.66</v>
+        <v>14.76</v>
       </c>
     </row>
     <row r="33">
@@ -1055,17 +1055,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>375.4</v>
+        <v>320.16</v>
       </c>
       <c r="D33" t="n">
-        <v>427.3</v>
+        <v>356.52</v>
       </c>
       <c r="E33" t="n">
-        <v>8.460000000000001</v>
+        <v>9.747999999999999</v>
       </c>
     </row>
   </sheetData>
